--- a/Outcome 1/TaskList.xlsx
+++ b/Outcome 1/TaskList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myuhi-my.sharepoint.com/personal/20020709_uhi_ac_uk/Documents/TeamWork/Outcome 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myuhi-my.sharepoint.com/personal/20020709_uhi_ac_uk/Documents/TeamWork/TeamWorkProjectFiles/Outcome 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{01E0A466-E015-4516-B184-FB526C8E332E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98D596D1-AAF6-4E14-8E2D-7EE120EEAB48}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{01E0A466-E015-4516-B184-FB526C8E332E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0380B081-2B00-418E-81FA-0E5D14426B3D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="367" xr2:uid="{AC36AD60-9A6B-48DC-9C8A-48F8C3BD6D91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="367" xr2:uid="{AC36AD60-9A6B-48DC-9C8A-48F8C3BD6D91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>Job No.</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Date Completed</t>
   </si>
   <si>
-    <t>Add document of idea concepts to shared folder.</t>
-  </si>
-  <si>
     <t>Ruben Avis</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>28.02.23</t>
   </si>
   <si>
-    <t>Write HTML code to create background and basic header for website</t>
-  </si>
-  <si>
     <t>Write elevator pitch</t>
   </si>
   <si>
@@ -114,6 +108,39 @@
   </si>
   <si>
     <t>Create 3 biscuit information logs each</t>
+  </si>
+  <si>
+    <t>5.03.23</t>
+  </si>
+  <si>
+    <t>16.03.23</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>NEW TASKS FROM 16.3.23</t>
+  </si>
+  <si>
+    <t>31.03.23</t>
+  </si>
+  <si>
+    <t>Make Hero section HTML/CSS</t>
+  </si>
+  <si>
+    <t>Make Footer in HTML/CSS</t>
+  </si>
+  <si>
+    <t>Make Header in HTML/CSS</t>
+  </si>
+  <si>
+    <t>Make Carousel interactivity in HTML/CSS</t>
+  </si>
+  <si>
+    <t>Get pictures of extra biscuits</t>
+  </si>
+  <si>
+    <t>31.04.23</t>
   </si>
 </sst>
 </file>
@@ -226,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -237,6 +264,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,11 +579,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C54C014-862F-408A-B463-11E1033B8E30}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -582,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -593,16 +621,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -610,16 +638,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -627,10 +655,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -638,16 +675,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -655,13 +692,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -669,10 +709,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -680,16 +726,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -697,16 +743,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -714,13 +760,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -728,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -742,16 +788,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -759,147 +805,102 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>8</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>12</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>13</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H23" xr:uid="{B92DB9B2-734E-4EDE-A561-4227DB6C1031}">
       <formula1>$I$20:$I$23</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C5:C1048576" xr:uid="{10C9E0E3-B13D-4DBE-9AC1-E9ECB5336F42}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{10C9E0E3-B13D-4DBE-9AC1-E9ECB5336F42}">
       <formula1>"Sandra Miller, Referdinand Jr Balanquit, Ruben Avis, Ivan Kvas, To be assigned,$C:$C"</formula1>
     </dataValidation>
   </dataValidations>
